--- a/data/extracted/Congressional Election Results by State (2004 - 109th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2004 - 109th).xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE66B22-9A78-E044-B46E-59AE608B7FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AF145D-92ED-0740-990F-36539F553D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="1120" windowWidth="21360" windowHeight="16880" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="1120" windowWidth="21360" windowHeight="16880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="3" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="2" r:id="rId2"/>
-    <sheet name="Uncontested PIVOT" sheetId="4" r:id="rId3"/>
-    <sheet name="RESULTS" sheetId="5" r:id="rId4"/>
-    <sheet name="UNCONTESTED" sheetId="6" r:id="rId5"/>
+    <sheet name="RESULTS" sheetId="5" r:id="rId3"/>
+    <sheet name="UNCONTESTED" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Uncontested Races'!$A$2:$J$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="168">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -520,18 +516,6 @@
   </si>
   <si>
     <t>30th</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of REP2</t>
-  </si>
-  <si>
-    <t>Sum of DEM2</t>
-  </si>
-  <si>
-    <t>Sum of TOT1</t>
   </si>
   <si>
     <t>STATE</t>
@@ -713,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -767,19 +751,11 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -790,1798 +766,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42879.368785300925" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="93" xr:uid="{00000000-000A-0000-FFFF-FFFF19000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J95" sheet="Uncontested Races"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems count="50">
-        <s v="Alabama"/>
-        <s v="Alaska"/>
-        <s v="Arizona"/>
-        <s v="Arkansas"/>
-        <s v="California"/>
-        <s v="Colorado"/>
-        <s v="Connecticut"/>
-        <s v="Delaware"/>
-        <s v="Florida"/>
-        <s v="Georgia"/>
-        <s v="Hawaiʻi"/>
-        <s v="Idaho"/>
-        <s v="Illinois"/>
-        <s v="Indiana"/>
-        <s v="Iowa"/>
-        <s v="Kansas"/>
-        <s v="Kentucky"/>
-        <s v="Louisiana"/>
-        <s v="Maine"/>
-        <s v="Maryland"/>
-        <s v="Massachusetts"/>
-        <s v="Michigan"/>
-        <s v="Minnesota"/>
-        <s v="Mississippi"/>
-        <s v="Missouri"/>
-        <s v="Montana"/>
-        <s v="Nebraska"/>
-        <s v="Nevada"/>
-        <s v="New Hampshire"/>
-        <s v="New Jersey"/>
-        <s v="New Mexico"/>
-        <s v="New York"/>
-        <s v="North Carolina"/>
-        <s v="North Dakota"/>
-        <s v="Ohio"/>
-        <s v="Oklahoma"/>
-        <s v="Oregon"/>
-        <s v="Pennsylvania"/>
-        <s v="Rhode Island"/>
-        <s v="South Carolina"/>
-        <s v="South Dakota"/>
-        <s v="Tennessee"/>
-        <s v="Texas"/>
-        <s v="Utah"/>
-        <s v="Vermont"/>
-        <s v="Virginia"/>
-        <s v="Washington"/>
-        <s v="West Virginia"/>
-        <s v="Wisconsin"/>
-        <s v="Wyoming"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="**" numFmtId="0">
-      <sharedItems count="50">
-        <s v="AL"/>
-        <s v="AK"/>
-        <s v="AZ"/>
-        <s v="AR"/>
-        <s v="CA"/>
-        <s v="CO"/>
-        <s v="CT"/>
-        <s v="DE"/>
-        <s v="FL"/>
-        <s v="GA"/>
-        <s v="HI"/>
-        <s v="ID"/>
-        <s v="IL"/>
-        <s v="IN"/>
-        <s v="IA"/>
-        <s v="KS"/>
-        <s v="KY"/>
-        <s v="LA"/>
-        <s v="ME"/>
-        <s v="MD"/>
-        <s v="MA"/>
-        <s v="MI"/>
-        <s v="MN"/>
-        <s v="MS"/>
-        <s v="MO"/>
-        <s v="MT"/>
-        <s v="NE"/>
-        <s v="NV"/>
-        <s v="NH"/>
-        <s v="NJ"/>
-        <s v="NM"/>
-        <s v="NY"/>
-        <s v="NC"/>
-        <s v="ND"/>
-        <s v="OH"/>
-        <s v="OK"/>
-        <s v="OR"/>
-        <s v="PA"/>
-        <s v="RI"/>
-        <s v="SC"/>
-        <s v="SD"/>
-        <s v="TN"/>
-        <s v="TX"/>
-        <s v="UT"/>
-        <s v="VT"/>
-        <s v="VA"/>
-        <s v="WA"/>
-        <s v="WV"/>
-        <s v="WI"/>
-        <s v="WY"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="District" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="REP1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="284035"/>
-    </cacheField>
-    <cacheField name="DEM1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="241306"/>
-    </cacheField>
-    <cacheField name="OTH1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="160717"/>
-    </cacheField>
-    <cacheField name="TOT1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="315880" count="60">
-        <n v="268043"/>
-        <n v="0"/>
-        <n v="225974"/>
-        <n v="255577"/>
-        <m/>
-        <n v="209384"/>
-        <n v="140146"/>
-        <n v="188314"/>
-        <n v="116851"/>
-        <n v="218937"/>
-        <n v="174156"/>
-        <n v="257327"/>
-        <n v="284278"/>
-        <n v="223481"/>
-        <n v="179424"/>
-        <n v="201243"/>
-        <n v="188347"/>
-        <n v="201773"/>
-        <n v="267619"/>
-        <n v="258982"/>
-        <n v="219136"/>
-        <n v="170657"/>
-        <n v="234525"/>
-        <n v="264293"/>
-        <n v="177579"/>
-        <n v="295208"/>
-        <n v="287871"/>
-        <n v="299783"/>
-        <n v="215800"/>
-        <n v="297826"/>
-        <n v="277584"/>
-        <n v="293368"/>
-        <n v="160713"/>
-        <n v="184957"/>
-        <n v="202027"/>
-        <n v="315880"/>
-        <n v="223987"/>
-        <n v="222371"/>
-        <n v="262131"/>
-        <n v="255854"/>
-        <n v="219091"/>
-        <n v="206772"/>
-        <n v="181252"/>
-        <n v="204504"/>
-        <n v="220139"/>
-        <n v="245094"/>
-        <n v="212308"/>
-        <n v="191999"/>
-        <n v="232404"/>
-        <n v="210352"/>
-        <n v="231643"/>
-        <n v="205241"/>
-        <n v="173668"/>
-        <n v="152988"/>
-        <n v="83124"/>
-        <n v="155334"/>
-        <n v="286534"/>
-        <n v="213648"/>
-        <n v="305658"/>
-        <n v="281752"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="REP2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="1"/>
-        <n v="0"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="DEM2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="0"/>
-        <n v="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="OTH2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="93">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="6th"/>
-    <n v="264819"/>
-    <n v="0"/>
-    <n v="3224"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="3rd"/>
-    <n v="181012"/>
-    <n v="0"/>
-    <n v="44962"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="6th"/>
-    <n v="202882"/>
-    <n v="0"/>
-    <n v="52695"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="n/a"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="22nd"/>
-    <n v="209384"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="32nd"/>
-    <n v="0"/>
-    <n v="119144"/>
-    <n v="21002"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="33rd"/>
-    <n v="0"/>
-    <n v="166801"/>
-    <n v="21513"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="38th"/>
-    <n v="0"/>
-    <n v="116851"/>
-    <n v="0"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="41st"/>
-    <n v="181605"/>
-    <n v="0"/>
-    <n v="37332"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="172833"/>
-    <n v="1323"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="4th"/>
-    <n v="256157"/>
-    <n v="0"/>
-    <n v="1170"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="7th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="9th"/>
-    <n v="284035"/>
-    <n v="0"/>
-    <n v="243"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="11th"/>
-    <n v="0"/>
-    <n v="191780"/>
-    <n v="31701"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="17th"/>
-    <n v="0"/>
-    <n v="178690"/>
-    <n v="734"/>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="19th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="21st"/>
-    <n v="146507"/>
-    <n v="0"/>
-    <n v="54736"/>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="23rd"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="24th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="25th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="1st"/>
-    <n v="188347"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="201773"/>
-    <n v="0"/>
-    <x v="17"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="6th"/>
-    <n v="267542"/>
-    <n v="0"/>
-    <n v="77"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="7th"/>
-    <n v="258982"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="10th"/>
-    <n v="219136"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="13th"/>
-    <n v="0"/>
-    <n v="170657"/>
-    <n v="0"/>
-    <x v="21"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="207535"/>
-    <n v="26990"/>
-    <x v="22"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="1st"/>
-    <n v="239776"/>
-    <n v="0"/>
-    <n v="24517"/>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="5th"/>
-    <n v="177579"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="4th"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="229465"/>
-    <n v="65743"/>
-    <x v="25"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="217682"/>
-    <n v="70189"/>
-    <x v="26"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="219260"/>
-    <n v="80523"/>
-    <x v="27"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="165852"/>
-    <n v="49948"/>
-    <x v="28"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="9th"/>
-    <n v="0"/>
-    <n v="218167"/>
-    <n v="79659"/>
-    <x v="29"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="1st"/>
-    <n v="219328"/>
-    <n v="0"/>
-    <n v="58256"/>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="3rd"/>
-    <n v="234874"/>
-    <n v="0"/>
-    <n v="58494"/>
-    <x v="31"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <s v="10th"/>
-    <n v="0"/>
-    <n v="155697"/>
-    <n v="5016"/>
-    <x v="32"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="125127"/>
-    <n v="59830"/>
-    <x v="33"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="11th"/>
-    <n v="0"/>
-    <n v="134175"/>
-    <n v="67852"/>
-    <x v="34"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="25th"/>
-    <n v="155163"/>
-    <n v="0"/>
-    <n v="160717"/>
-    <x v="35"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="223842"/>
-    <n v="145"/>
-    <x v="36"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="11th"/>
-    <n v="0"/>
-    <n v="222371"/>
-    <n v="0"/>
-    <x v="37"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="3rd"/>
-    <n v="215510"/>
-    <n v="0"/>
-    <n v="46621"/>
-    <x v="38"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="4th"/>
-    <n v="198985"/>
-    <n v="0"/>
-    <n v="56869"/>
-    <x v="39"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="5th"/>
-    <n v="192852"/>
-    <n v="0"/>
-    <n v="26239"/>
-    <x v="40"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="10th"/>
-    <n v="191967"/>
-    <n v="0"/>
-    <n v="14805"/>
-    <x v="41"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="11th"/>
-    <n v="0"/>
-    <n v="171147"/>
-    <n v="10105"/>
-    <x v="42"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="12th"/>
-    <n v="0"/>
-    <n v="204504"/>
-    <n v="0"/>
-    <x v="43"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="14th"/>
-    <n v="0"/>
-    <n v="220139"/>
-    <n v="0"/>
-    <x v="44"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="19th"/>
-    <n v="224274"/>
-    <n v="0"/>
-    <n v="20820"/>
-    <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="1st"/>
-    <n v="186448"/>
-    <n v="0"/>
-    <n v="25860"/>
-    <x v="46"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="3rd"/>
-    <n v="191052"/>
-    <n v="0"/>
-    <n v="947"/>
-    <x v="47"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="7th"/>
-    <n v="232404"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="48"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="3rd"/>
-    <n v="180099"/>
-    <n v="0"/>
-    <n v="30253"/>
-    <x v="49"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="10th"/>
-    <n v="182113"/>
-    <n v="0"/>
-    <n v="49530"/>
-    <x v="50"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="13th"/>
-    <n v="189448"/>
-    <n v="0"/>
-    <n v="15793"/>
-    <x v="51"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="14th"/>
-    <n v="173668"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="18th"/>
-    <n v="0"/>
-    <n v="136018"/>
-    <n v="16970"/>
-    <x v="53"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="29th"/>
-    <n v="0"/>
-    <n v="78256"/>
-    <n v="4868"/>
-    <x v="54"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="30th"/>
-    <n v="0"/>
-    <n v="144513"/>
-    <n v="10821"/>
-    <x v="55"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="1st"/>
-    <n v="225071"/>
-    <n v="0"/>
-    <n v="61463"/>
-    <x v="56"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="6th"/>
-    <n v="206560"/>
-    <n v="0"/>
-    <n v="7088"/>
-    <x v="57"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="7th"/>
-    <n v="230765"/>
-    <n v="0"/>
-    <n v="74893"/>
-    <x v="58"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="241306"/>
-    <n v="40446"/>
-    <x v="59"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="61">
-        <item x="1"/>
-        <item x="54"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="53"/>
-        <item x="55"/>
-        <item x="32"/>
-        <item x="21"/>
-        <item x="52"/>
-        <item x="10"/>
-        <item x="24"/>
-        <item x="14"/>
-        <item x="42"/>
-        <item x="33"/>
-        <item x="7"/>
-        <item x="16"/>
-        <item x="47"/>
-        <item x="15"/>
-        <item x="17"/>
-        <item x="34"/>
-        <item x="43"/>
-        <item x="51"/>
-        <item x="41"/>
-        <item x="5"/>
-        <item x="49"/>
-        <item x="46"/>
-        <item x="57"/>
-        <item x="28"/>
-        <item x="9"/>
-        <item x="40"/>
-        <item x="20"/>
-        <item x="44"/>
-        <item x="37"/>
-        <item x="13"/>
-        <item x="36"/>
-        <item x="2"/>
-        <item x="50"/>
-        <item x="48"/>
-        <item x="22"/>
-        <item x="45"/>
-        <item x="3"/>
-        <item x="39"/>
-        <item x="11"/>
-        <item x="19"/>
-        <item x="38"/>
-        <item x="23"/>
-        <item x="18"/>
-        <item x="0"/>
-        <item x="30"/>
-        <item x="59"/>
-        <item x="12"/>
-        <item x="56"/>
-        <item x="26"/>
-        <item x="31"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="27"/>
-        <item x="58"/>
-        <item x="35"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of TOT1" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of REP2" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of DEM2" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5431,7 +3615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8583,908 +6767,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E53" sqref="C4:E53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>268043</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>481551</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>873632</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1319909</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1306514</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1">
-        <v>234525</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="1">
-        <v>264293</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1">
-        <v>177579</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1396488</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="1">
-        <v>570952</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="1">
-        <v>160713</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1">
-        <v>702864</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="1">
-        <v>446358</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1">
-        <v>517985</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1276852</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="1">
-        <v>404307</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="1">
-        <v>232404</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1212350</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="1">
-        <v>805840</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="1">
-        <v>281752</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="1">
-        <v>12934911</v>
-      </c>
-      <c r="D54">
-        <v>36</v>
-      </c>
-      <c r="E54">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFE6865-6F2F-1840-B4DD-A47C4DBB50FB}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9495,34 +6781,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11130,7 +8416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED74AABC-628E-B346-8EC1-746B53C43FE4}">
   <dimension ref="A1:J94"/>
   <sheetViews>
@@ -11145,34 +8431,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
